--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4146.7467851355</v>
+        <v>4345.2289930856</v>
       </c>
       <c r="AB2" t="n">
-        <v>5673.76189297951</v>
+        <v>5945.334006313868</v>
       </c>
       <c r="AC2" t="n">
-        <v>5132.26602108816</v>
+        <v>5377.919673079735</v>
       </c>
       <c r="AD2" t="n">
-        <v>4146746.785135501</v>
+        <v>4345228.9930856</v>
       </c>
       <c r="AE2" t="n">
-        <v>5673761.89297951</v>
+        <v>5945334.006313869</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.578570727699228e-07</v>
+        <v>9.484091314544863e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.19791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5132266.021088161</v>
+        <v>5377919.673079735</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1954.550157460467</v>
+        <v>2083.880082192127</v>
       </c>
       <c r="AB3" t="n">
-        <v>2674.301754104643</v>
+        <v>2851.256662756096</v>
       </c>
       <c r="AC3" t="n">
-        <v>2419.070148098981</v>
+        <v>2579.136728626514</v>
       </c>
       <c r="AD3" t="n">
-        <v>1954550.157460467</v>
+        <v>2083880.082192127</v>
       </c>
       <c r="AE3" t="n">
-        <v>2674301.754104643</v>
+        <v>2851256.662756097</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.04103127467849e-06</v>
+        <v>1.500817742792723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2419070.148098981</v>
+        <v>2579136.728626513</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1559.704880181747</v>
+        <v>1671.938661523033</v>
       </c>
       <c r="AB4" t="n">
-        <v>2134.057026387662</v>
+        <v>2287.620237423789</v>
       </c>
       <c r="AC4" t="n">
-        <v>1930.385618957071</v>
+        <v>2069.29297265923</v>
       </c>
       <c r="AD4" t="n">
-        <v>1559704.880181747</v>
+        <v>1671938.661523033</v>
       </c>
       <c r="AE4" t="n">
-        <v>2134057.026387662</v>
+        <v>2287620.237423789</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.190697026544823e-06</v>
+        <v>1.716585531285703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.52408854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1930385.618957071</v>
+        <v>2069292.97265923</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1382.121865357359</v>
+        <v>1494.184964989501</v>
       </c>
       <c r="AB5" t="n">
-        <v>1891.080111095245</v>
+        <v>2044.409787886976</v>
       </c>
       <c r="AC5" t="n">
-        <v>1710.59807943992</v>
+        <v>1849.294187078201</v>
       </c>
       <c r="AD5" t="n">
-        <v>1382121.865357359</v>
+        <v>1494184.964989501</v>
       </c>
       <c r="AE5" t="n">
-        <v>1891080.111095245</v>
+        <v>2044409.787886976</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.270244887174964e-06</v>
+        <v>1.831266851183407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.92578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1710598.07943992</v>
+        <v>1849294.187078201</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1277.951784062929</v>
+        <v>1372.918919321798</v>
       </c>
       <c r="AB6" t="n">
-        <v>1748.550010208564</v>
+        <v>1878.488234324066</v>
       </c>
       <c r="AC6" t="n">
-        <v>1581.670851339611</v>
+        <v>1699.207953714972</v>
       </c>
       <c r="AD6" t="n">
-        <v>1277951.784062929</v>
+        <v>1372918.919321798</v>
       </c>
       <c r="AE6" t="n">
-        <v>1748550.010208564</v>
+        <v>1878488.234324066</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321409473589656e-06</v>
+        <v>1.905029014685686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.00130208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1581670.851339611</v>
+        <v>1699207.953714972</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1190.266313439118</v>
+        <v>1285.148107843416</v>
       </c>
       <c r="AB7" t="n">
-        <v>1628.574880891121</v>
+        <v>1758.396337884426</v>
       </c>
       <c r="AC7" t="n">
-        <v>1473.145979978073</v>
+        <v>1590.577459321496</v>
       </c>
       <c r="AD7" t="n">
-        <v>1190266.313439118</v>
+        <v>1285148.107843416</v>
       </c>
       <c r="AE7" t="n">
-        <v>1628574.880891121</v>
+        <v>1758396.337884426</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.356981932392571e-06</v>
+        <v>1.95631256266811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.39908854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1473145.979978073</v>
+        <v>1590577.459321496</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1137.962147182362</v>
+        <v>1232.84394158666</v>
       </c>
       <c r="AB8" t="n">
-        <v>1557.010013121667</v>
+        <v>1686.831470114971</v>
       </c>
       <c r="AC8" t="n">
-        <v>1408.411162746613</v>
+        <v>1525.842642090035</v>
       </c>
       <c r="AD8" t="n">
-        <v>1137962.147182362</v>
+        <v>1232843.94158666</v>
       </c>
       <c r="AE8" t="n">
-        <v>1557010.013121667</v>
+        <v>1686831.470114971</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377895923919744e-06</v>
+        <v>1.986463520012107e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1408411.162746613</v>
+        <v>1525842.642090035</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1134.615812598669</v>
+        <v>1229.497607002966</v>
       </c>
       <c r="AB9" t="n">
-        <v>1552.431410514395</v>
+        <v>1682.252867507699</v>
       </c>
       <c r="AC9" t="n">
-        <v>1404.26953554607</v>
+        <v>1521.701014889492</v>
       </c>
       <c r="AD9" t="n">
-        <v>1134615.812598669</v>
+        <v>1229497.607002966</v>
       </c>
       <c r="AE9" t="n">
-        <v>1552431.410514395</v>
+        <v>1682252.867507699</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.380136708726227e-06</v>
+        <v>1.989693979727536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.021484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1404269.53554607</v>
+        <v>1521701.014889492</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2859.818732725965</v>
+        <v>3028.081862971455</v>
       </c>
       <c r="AB2" t="n">
-        <v>3912.930156414007</v>
+        <v>4143.155194461299</v>
       </c>
       <c r="AC2" t="n">
-        <v>3539.485594117673</v>
+        <v>3747.738277656593</v>
       </c>
       <c r="AD2" t="n">
-        <v>2859818.732725965</v>
+        <v>3028081.862971455</v>
       </c>
       <c r="AE2" t="n">
-        <v>3912930.156414007</v>
+        <v>4143155.194461299</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.096792266137777e-07</v>
+        <v>1.18533992847791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.83463541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3539485.594117674</v>
+        <v>3747738.277656593</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1549.854357089678</v>
+        <v>1667.612946005149</v>
       </c>
       <c r="AB3" t="n">
-        <v>2120.579106118685</v>
+        <v>2281.70160261512</v>
       </c>
       <c r="AC3" t="n">
-        <v>1918.194012482185</v>
+        <v>2063.939204049845</v>
       </c>
       <c r="AD3" t="n">
-        <v>1549854.357089678</v>
+        <v>1667612.946005149</v>
       </c>
       <c r="AE3" t="n">
-        <v>2120579.106118685</v>
+        <v>2281701.60261512</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167240063655911e-06</v>
+        <v>1.708795542843318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.93684895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1918194.012482185</v>
+        <v>2063939.204049845</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1278.251022283238</v>
+        <v>1379.174853597254</v>
       </c>
       <c r="AB4" t="n">
-        <v>1748.959441143051</v>
+        <v>1887.047879592087</v>
       </c>
       <c r="AC4" t="n">
-        <v>1582.04120676035</v>
+        <v>1706.95067845215</v>
       </c>
       <c r="AD4" t="n">
-        <v>1278251.022283238</v>
+        <v>1379174.853597254</v>
       </c>
       <c r="AE4" t="n">
-        <v>1748959.441143051</v>
+        <v>1887047.879592087</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.301590988649322e-06</v>
+        <v>1.905480242892558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.15690104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1582041.20676035</v>
+        <v>1706950.67845215</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1127.502207368461</v>
+        <v>1228.425949173925</v>
       </c>
       <c r="AB5" t="n">
-        <v>1542.698262008311</v>
+        <v>1680.786577987799</v>
       </c>
       <c r="AC5" t="n">
-        <v>1395.465305072846</v>
+        <v>1520.374665983421</v>
       </c>
       <c r="AD5" t="n">
-        <v>1127502.207368461</v>
+        <v>1228425.949173925</v>
       </c>
       <c r="AE5" t="n">
-        <v>1542698.262008311</v>
+        <v>1680786.577987799</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.374513309547975e-06</v>
+        <v>2.012235777426832e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.87434895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1395465.305072846</v>
+        <v>1520374.665983421</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1046.245204682458</v>
+        <v>1138.751612441471</v>
       </c>
       <c r="AB6" t="n">
-        <v>1431.518846127367</v>
+        <v>1558.090194317929</v>
       </c>
       <c r="AC6" t="n">
-        <v>1294.896696602289</v>
+        <v>1409.388252965548</v>
       </c>
       <c r="AD6" t="n">
-        <v>1046245.204682458</v>
+        <v>1138751.612441471</v>
       </c>
       <c r="AE6" t="n">
-        <v>1431518.846127367</v>
+        <v>1558090.194317929</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413920338589895e-06</v>
+        <v>2.069926185493036e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.236328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1294896.69660229</v>
+        <v>1409388.252965548</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1045.988720448066</v>
+        <v>1138.495128207079</v>
       </c>
       <c r="AB7" t="n">
-        <v>1431.167913082586</v>
+        <v>1557.739261273148</v>
       </c>
       <c r="AC7" t="n">
-        <v>1294.579256114765</v>
+        <v>1409.070812478023</v>
       </c>
       <c r="AD7" t="n">
-        <v>1045988.720448066</v>
+        <v>1138495.128207079</v>
       </c>
       <c r="AE7" t="n">
-        <v>1431167.913082586</v>
+        <v>1557739.261273148</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416141813266278e-06</v>
+        <v>2.073178340849709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.20377604166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1294579.256114765</v>
+        <v>1409070.812478023</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1100.227874243151</v>
+        <v>1208.884575667937</v>
       </c>
       <c r="AB2" t="n">
-        <v>1505.380316167607</v>
+        <v>1654.049208652351</v>
       </c>
       <c r="AC2" t="n">
-        <v>1361.708931607114</v>
+        <v>1496.189073651215</v>
       </c>
       <c r="AD2" t="n">
-        <v>1100227.874243151</v>
+        <v>1208884.575667937</v>
       </c>
       <c r="AE2" t="n">
-        <v>1505380.316167607</v>
+        <v>1654049.208652351</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305379815342681e-06</v>
+        <v>2.019583701171017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.87825520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1361708.931607113</v>
+        <v>1496189.073651215</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.0391966916116</v>
+        <v>941.2466615024898</v>
       </c>
       <c r="AB3" t="n">
-        <v>1160.324641762355</v>
+        <v>1287.855207139734</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.584886478418</v>
+        <v>1164.944113686453</v>
       </c>
       <c r="AD3" t="n">
-        <v>848039.1966916115</v>
+        <v>941246.6615024898</v>
       </c>
       <c r="AE3" t="n">
-        <v>1160324.641762355</v>
+        <v>1287855.207139734</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.484718653910236e-06</v>
+        <v>2.297043020750655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.62955729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049584.886478418</v>
+        <v>1164944.113686453</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1590.945893451108</v>
+        <v>1719.033408583857</v>
       </c>
       <c r="AB2" t="n">
-        <v>2176.802358999034</v>
+        <v>2352.057348026015</v>
       </c>
       <c r="AC2" t="n">
-        <v>1969.051397017465</v>
+        <v>2127.580295863633</v>
       </c>
       <c r="AD2" t="n">
-        <v>1590945.893451108</v>
+        <v>1719033.408583857</v>
       </c>
       <c r="AE2" t="n">
-        <v>2176802.358999034</v>
+        <v>2352057.348026014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102405445367992e-06</v>
+        <v>1.666058700359429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.44596354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1969051.397017465</v>
+        <v>2127580.295863633</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1011.974938815256</v>
+        <v>1116.083308758792</v>
       </c>
       <c r="AB3" t="n">
-        <v>1384.628756470435</v>
+        <v>1527.07442116431</v>
       </c>
       <c r="AC3" t="n">
-        <v>1252.481731291561</v>
+        <v>1381.332581670798</v>
       </c>
       <c r="AD3" t="n">
-        <v>1011974.938815256</v>
+        <v>1116083.308758792</v>
       </c>
       <c r="AE3" t="n">
-        <v>1384628.756470435</v>
+        <v>1527074.42116431</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.405020482980699e-06</v>
+        <v>2.123398981462584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.88671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1252481.731291561</v>
+        <v>1381332.581670798</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>909.6446629141168</v>
+        <v>1005.81690820048</v>
       </c>
       <c r="AB4" t="n">
-        <v>1244.615958489341</v>
+        <v>1376.203067310162</v>
       </c>
       <c r="AC4" t="n">
-        <v>1125.831558240586</v>
+        <v>1244.860178079215</v>
       </c>
       <c r="AD4" t="n">
-        <v>909644.6629141168</v>
+        <v>1005816.90820048</v>
       </c>
       <c r="AE4" t="n">
-        <v>1244615.958489341</v>
+        <v>1376203.067310162</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.468945976445734e-06</v>
+        <v>2.220009194165805e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.84830729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1125831.558240586</v>
+        <v>1244860.178079215</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>817.3648665748552</v>
+        <v>915.5440770031186</v>
       </c>
       <c r="AB2" t="n">
-        <v>1118.354670040673</v>
+        <v>1252.687797109694</v>
       </c>
       <c r="AC2" t="n">
-        <v>1011.620469952628</v>
+        <v>1133.13303191191</v>
       </c>
       <c r="AD2" t="n">
-        <v>817364.8665748552</v>
+        <v>915544.0770031186</v>
       </c>
       <c r="AE2" t="n">
-        <v>1118354.670040673</v>
+        <v>1252687.797109694</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.462420048716416e-06</v>
+        <v>2.311337323832435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.91536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1011620.469952628</v>
+        <v>1133133.03191191</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.0631150844912</v>
+        <v>909.2423255127545</v>
       </c>
       <c r="AB3" t="n">
-        <v>1109.732335637902</v>
+        <v>1244.065462706924</v>
       </c>
       <c r="AC3" t="n">
-        <v>1003.821039043735</v>
+        <v>1125.333601003018</v>
       </c>
       <c r="AD3" t="n">
-        <v>811063.1150844912</v>
+        <v>909242.3255127545</v>
       </c>
       <c r="AE3" t="n">
-        <v>1109732.335637902</v>
+        <v>1244065.462706924</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474844742586108e-06</v>
+        <v>2.330974403277165e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.70377604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1003821.039043735</v>
+        <v>1125333.601003018</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3139.687604304294</v>
+        <v>3317.56009915097</v>
       </c>
       <c r="AB2" t="n">
-        <v>4295.859093450709</v>
+        <v>4539.232088080591</v>
       </c>
       <c r="AC2" t="n">
-        <v>3885.868330847717</v>
+        <v>4106.014148446257</v>
       </c>
       <c r="AD2" t="n">
-        <v>3139687.604304295</v>
+        <v>3317560.099150971</v>
       </c>
       <c r="AE2" t="n">
-        <v>4295859.093450709</v>
+        <v>4539232.088080591</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.691917098205596e-07</v>
+        <v>1.121394047289466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.5078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3885868.330847717</v>
+        <v>4106014.148446256</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1648.682653994419</v>
+        <v>1767.150618927991</v>
       </c>
       <c r="AB3" t="n">
-        <v>2255.800341940497</v>
+        <v>2417.89343800036</v>
       </c>
       <c r="AC3" t="n">
-        <v>2040.50992334136</v>
+        <v>2187.133081812359</v>
       </c>
       <c r="AD3" t="n">
-        <v>1648682.653994419</v>
+        <v>1767150.618927991</v>
       </c>
       <c r="AE3" t="n">
-        <v>2255800.341940497</v>
+        <v>2417893.43800036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134165327235417e-06</v>
+        <v>1.653484079931916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.470703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2040509.92334136</v>
+        <v>2187133.081812359</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1343.169111572427</v>
+        <v>1453.077552998987</v>
       </c>
       <c r="AB4" t="n">
-        <v>1837.783234892488</v>
+        <v>1988.164813270531</v>
       </c>
       <c r="AC4" t="n">
-        <v>1662.387782299318</v>
+        <v>1798.417153898832</v>
       </c>
       <c r="AD4" t="n">
-        <v>1343169.111572427</v>
+        <v>1453077.552998987</v>
       </c>
       <c r="AE4" t="n">
-        <v>1837783.234892488</v>
+        <v>1988164.813270531</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273148199642019e-06</v>
+        <v>1.856105304006618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.47265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1662387.782299318</v>
+        <v>1798417.153898832</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1198.725012088737</v>
+        <v>1300.244611717429</v>
       </c>
       <c r="AB5" t="n">
-        <v>1640.148445554977</v>
+        <v>1779.052040495596</v>
       </c>
       <c r="AC5" t="n">
-        <v>1483.61497987401</v>
+        <v>1609.261810665917</v>
       </c>
       <c r="AD5" t="n">
-        <v>1198725.012088737</v>
+        <v>1300244.611717429</v>
       </c>
       <c r="AE5" t="n">
-        <v>1640148.445554977</v>
+        <v>1779052.040495596</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.346659801576089e-06</v>
+        <v>1.963276860541997e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.13802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1483614.97987401</v>
+        <v>1609261.810665916</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1096.961452166653</v>
+        <v>1190.092209997477</v>
       </c>
       <c r="AB6" t="n">
-        <v>1500.911053378171</v>
+        <v>1628.336664881365</v>
       </c>
       <c r="AC6" t="n">
-        <v>1357.666208985651</v>
+        <v>1472.93049896995</v>
       </c>
       <c r="AD6" t="n">
-        <v>1096961.452166653</v>
+        <v>1190092.209997477</v>
       </c>
       <c r="AE6" t="n">
-        <v>1500911.053378171</v>
+        <v>1628336.664881365</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392221679858143e-06</v>
+        <v>2.029700898186321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.37955729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1357666.208985651</v>
+        <v>1472930.49896995</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1066.135636156994</v>
+        <v>1159.266393987818</v>
       </c>
       <c r="AB7" t="n">
-        <v>1458.733811974733</v>
+        <v>1586.159423477927</v>
       </c>
       <c r="AC7" t="n">
-        <v>1319.514304305628</v>
+        <v>1434.778594289926</v>
       </c>
       <c r="AD7" t="n">
-        <v>1066135.636156994</v>
+        <v>1159266.393987817</v>
       </c>
       <c r="AE7" t="n">
-        <v>1458733.811974733</v>
+        <v>1586159.423477927</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.407249442232687e-06</v>
+        <v>2.051609666905142e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.14192708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1319514.304305628</v>
+        <v>1434778.594289926</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1070.725207362457</v>
+        <v>1163.85596519328</v>
       </c>
       <c r="AB8" t="n">
-        <v>1465.013465775638</v>
+        <v>1592.439077278833</v>
       </c>
       <c r="AC8" t="n">
-        <v>1325.194636761324</v>
+        <v>1440.458926745623</v>
       </c>
       <c r="AD8" t="n">
-        <v>1070725.207362457</v>
+        <v>1163855.96519328</v>
       </c>
       <c r="AE8" t="n">
-        <v>1465013.465775638</v>
+        <v>1592439.077278833</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.407058005769316e-06</v>
+        <v>2.051330574309998e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.14518229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1325194.636761324</v>
+        <v>1440458.926745623</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>790.2620905687265</v>
+        <v>886.9217963222959</v>
       </c>
       <c r="AB2" t="n">
-        <v>1081.271456218997</v>
+        <v>1213.525529956288</v>
       </c>
       <c r="AC2" t="n">
-        <v>978.0764260114757</v>
+        <v>1097.708356571037</v>
       </c>
       <c r="AD2" t="n">
-        <v>790262.0905687265</v>
+        <v>886921.7963222959</v>
       </c>
       <c r="AE2" t="n">
-        <v>1081271.456218997</v>
+        <v>1213525.529956288</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.451824474232737e-06</v>
+        <v>2.326163837918664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.68359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>978076.4260114757</v>
+        <v>1097708.356571038</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2161.314748322876</v>
+        <v>2309.256646063228</v>
       </c>
       <c r="AB2" t="n">
-        <v>2957.206189132555</v>
+        <v>3159.626820356979</v>
       </c>
       <c r="AC2" t="n">
-        <v>2674.974580906698</v>
+        <v>2858.076471186084</v>
       </c>
       <c r="AD2" t="n">
-        <v>2161314.748322876</v>
+        <v>2309256.646063228</v>
       </c>
       <c r="AE2" t="n">
-        <v>2957206.189132555</v>
+        <v>3159626.82035698</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.428890901383864e-07</v>
+        <v>1.400042451139581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2674974.580906698</v>
+        <v>2858076.471186084</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1284.153452799989</v>
+        <v>1391.014627285045</v>
       </c>
       <c r="AB3" t="n">
-        <v>1757.035406972925</v>
+        <v>1903.247580285672</v>
       </c>
       <c r="AC3" t="n">
-        <v>1589.34641374611</v>
+        <v>1721.604302447962</v>
       </c>
       <c r="AD3" t="n">
-        <v>1284153.452799989</v>
+        <v>1391014.627285045</v>
       </c>
       <c r="AE3" t="n">
-        <v>1757035.406972925</v>
+        <v>1903247.580285672</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274865660555448e-06</v>
+        <v>1.892975603329727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.41015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1589346.41374611</v>
+        <v>1721604.302447963</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1062.152590511052</v>
+        <v>1160.780552174135</v>
       </c>
       <c r="AB4" t="n">
-        <v>1453.284033202382</v>
+        <v>1588.231161508391</v>
       </c>
       <c r="AC4" t="n">
-        <v>1314.584644770498</v>
+        <v>1436.652608550465</v>
       </c>
       <c r="AD4" t="n">
-        <v>1062152.590511052</v>
+        <v>1160780.552174135</v>
       </c>
       <c r="AE4" t="n">
-        <v>1453284.033202382</v>
+        <v>1588231.161508391</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.399555901182719e-06</v>
+        <v>2.078121058873569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.14453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1314584.644770497</v>
+        <v>1436652.608550465</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>977.944996408774</v>
+        <v>1068.425086104455</v>
       </c>
       <c r="AB5" t="n">
-        <v>1338.067487974784</v>
+        <v>1461.866338396253</v>
       </c>
       <c r="AC5" t="n">
-        <v>1210.364204911984</v>
+        <v>1322.347866802005</v>
       </c>
       <c r="AD5" t="n">
-        <v>977944.9964087741</v>
+        <v>1068425.086104455</v>
       </c>
       <c r="AE5" t="n">
-        <v>1338067.487974784</v>
+        <v>1461866.338396253</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444038373297955e-06</v>
+        <v>2.144170554985378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.431640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1210364.204911984</v>
+        <v>1322347.866802006</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>980.6545374911444</v>
+        <v>1071.134627186826</v>
       </c>
       <c r="AB6" t="n">
-        <v>1341.774801620199</v>
+        <v>1465.573652041668</v>
       </c>
       <c r="AC6" t="n">
-        <v>1213.717697746328</v>
+        <v>1325.70135963635</v>
       </c>
       <c r="AD6" t="n">
-        <v>980654.5374911444</v>
+        <v>1071134.627186826</v>
       </c>
       <c r="AE6" t="n">
-        <v>1341774.801620199</v>
+        <v>1465573.652041668</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.444038373297955e-06</v>
+        <v>2.144170554985378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.431640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1213717.697746328</v>
+        <v>1325701.35963635</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2611.491220585669</v>
+        <v>2770.132244696365</v>
       </c>
       <c r="AB2" t="n">
-        <v>3573.157498866995</v>
+        <v>3790.217146803298</v>
       </c>
       <c r="AC2" t="n">
-        <v>3232.140362133041</v>
+        <v>3428.484141915424</v>
       </c>
       <c r="AD2" t="n">
-        <v>2611491.220585669</v>
+        <v>2770132.244696365</v>
       </c>
       <c r="AE2" t="n">
-        <v>3573157.498866995</v>
+        <v>3790217.146803298</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.51886045991204e-07</v>
+        <v>1.252649429413827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.25911458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3232140.362133041</v>
+        <v>3428484.141915424</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1463.253087025271</v>
+        <v>1580.016239673161</v>
       </c>
       <c r="AB3" t="n">
-        <v>2002.08742783817</v>
+        <v>2161.847924517753</v>
       </c>
       <c r="AC3" t="n">
-        <v>1811.011013672648</v>
+        <v>1955.524192774396</v>
       </c>
       <c r="AD3" t="n">
-        <v>1463253.087025271</v>
+        <v>1580016.239673161</v>
       </c>
       <c r="AE3" t="n">
-        <v>2002087.42783817</v>
+        <v>2161847.924517753</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.201337755826671e-06</v>
+        <v>1.766498067964721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.41927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1811011.013672648</v>
+        <v>1955524.192774396</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1202.245483955696</v>
+        <v>1310.73538182796</v>
       </c>
       <c r="AB4" t="n">
-        <v>1644.965310475608</v>
+        <v>1793.405974980938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1487.972129967129</v>
+        <v>1622.245825789851</v>
       </c>
       <c r="AD4" t="n">
-        <v>1202245.483955696</v>
+        <v>1310735.38182796</v>
       </c>
       <c r="AE4" t="n">
-        <v>1644965.310475608</v>
+        <v>1793405.974980938</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.332089637213212e-06</v>
+        <v>1.958761188583233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1487972.129967129</v>
+        <v>1622245.825789851</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1064.755248975745</v>
+        <v>1164.971981580934</v>
       </c>
       <c r="AB5" t="n">
-        <v>1456.845105334963</v>
+        <v>1593.966060135589</v>
       </c>
       <c r="AC5" t="n">
-        <v>1317.80585317674</v>
+        <v>1441.840176501663</v>
       </c>
       <c r="AD5" t="n">
-        <v>1064755.248975745</v>
+        <v>1164971.981580934</v>
       </c>
       <c r="AE5" t="n">
-        <v>1456845.105334963</v>
+        <v>1593966.060135589</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.4033645255753e-06</v>
+        <v>2.063566812126957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.6171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1317805.85317674</v>
+        <v>1441840.176501663</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1022.426118235765</v>
+        <v>1114.284434227859</v>
       </c>
       <c r="AB6" t="n">
-        <v>1398.928521227071</v>
+        <v>1524.613121670343</v>
       </c>
       <c r="AC6" t="n">
-        <v>1265.41674656967</v>
+        <v>1379.106185146081</v>
       </c>
       <c r="AD6" t="n">
-        <v>1022426.118235765</v>
+        <v>1114284.434227859</v>
       </c>
       <c r="AE6" t="n">
-        <v>1398928.521227071</v>
+        <v>1524613.121670343</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425010250905511e-06</v>
+        <v>2.095395606144339e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.27213541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1265416.74656967</v>
+        <v>1379106.185146081</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1026.316193473444</v>
+        <v>1118.174509465537</v>
       </c>
       <c r="AB7" t="n">
-        <v>1404.25109378527</v>
+        <v>1529.935694228542</v>
       </c>
       <c r="AC7" t="n">
-        <v>1270.231340273192</v>
+        <v>1383.920778849603</v>
       </c>
       <c r="AD7" t="n">
-        <v>1026316.193473444</v>
+        <v>1118174.509465537</v>
       </c>
       <c r="AE7" t="n">
-        <v>1404251.09378527</v>
+        <v>1529935.694228542</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425010250905511e-06</v>
+        <v>2.095395606144339e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.27213541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1270231.340273192</v>
+        <v>1383920.778849603</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3778.199613422269</v>
+        <v>3966.918256659491</v>
       </c>
       <c r="AB2" t="n">
-        <v>5169.499393487735</v>
+        <v>5427.712566843858</v>
       </c>
       <c r="AC2" t="n">
-        <v>4676.129626811037</v>
+        <v>4909.699297306508</v>
       </c>
       <c r="AD2" t="n">
-        <v>3778199.613422269</v>
+        <v>3966918.256659491</v>
       </c>
       <c r="AE2" t="n">
-        <v>5169499.393487735</v>
+        <v>5427712.566843858</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.935143126306435e-07</v>
+        <v>1.003357440492998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.17317708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4676129.626811037</v>
+        <v>4909699.297306508</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1843.515835967145</v>
+        <v>1972.16042323751</v>
       </c>
       <c r="AB3" t="n">
-        <v>2522.379696948934</v>
+        <v>2698.396896650889</v>
       </c>
       <c r="AC3" t="n">
-        <v>2281.647318854266</v>
+        <v>2440.865684058359</v>
       </c>
       <c r="AD3" t="n">
-        <v>1843515.835967144</v>
+        <v>1972160.42323751</v>
       </c>
       <c r="AE3" t="n">
-        <v>2522379.696948934</v>
+        <v>2698396.896650889</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072034405641968e-06</v>
+        <v>1.550989904282228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.57747395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2281647.318854266</v>
+        <v>2440865.684058358</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1490.929761496199</v>
+        <v>1602.325107003887</v>
       </c>
       <c r="AB4" t="n">
-        <v>2039.955874857998</v>
+        <v>2192.371900997417</v>
       </c>
       <c r="AC4" t="n">
-        <v>1845.265349257603</v>
+        <v>1983.135003779512</v>
       </c>
       <c r="AD4" t="n">
-        <v>1490929.7614962</v>
+        <v>1602325.107003887</v>
       </c>
       <c r="AE4" t="n">
-        <v>2039955.874857998</v>
+        <v>2192371.900997418</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216873396975739e-06</v>
+        <v>1.760538974837082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.17578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1845265.349257603</v>
+        <v>1983135.003779512</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1320.71757109466</v>
+        <v>1423.70151359461</v>
       </c>
       <c r="AB5" t="n">
-        <v>1807.064046718746</v>
+        <v>1947.971220178069</v>
       </c>
       <c r="AC5" t="n">
-        <v>1634.600390330227</v>
+        <v>1762.059580919052</v>
       </c>
       <c r="AD5" t="n">
-        <v>1320717.57109466</v>
+        <v>1423701.51359461</v>
       </c>
       <c r="AE5" t="n">
-        <v>1807064.046718746</v>
+        <v>1947971.220178069</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295457255171775e-06</v>
+        <v>1.874231940342803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.64908854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1634600.390330227</v>
+        <v>1762059.580919052</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1210.008405644204</v>
+        <v>1312.907007289582</v>
       </c>
       <c r="AB6" t="n">
-        <v>1655.586882405758</v>
+        <v>1796.377288742883</v>
       </c>
       <c r="AC6" t="n">
-        <v>1497.579993979735</v>
+        <v>1624.933561536622</v>
       </c>
       <c r="AD6" t="n">
-        <v>1210008.405644204</v>
+        <v>1312907.007289582</v>
       </c>
       <c r="AE6" t="n">
-        <v>1655586.882405758</v>
+        <v>1796377.288742883</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.345901504265278e-06</v>
+        <v>1.947213293050666e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1497579.993979735</v>
+        <v>1624933.561536622</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1134.258909608944</v>
+        <v>1228.575605554544</v>
       </c>
       <c r="AB7" t="n">
-        <v>1551.943080098405</v>
+        <v>1680.991344450135</v>
       </c>
       <c r="AC7" t="n">
-        <v>1403.827810699606</v>
+        <v>1520.559889821983</v>
       </c>
       <c r="AD7" t="n">
-        <v>1134258.909608944</v>
+        <v>1228575.605554544</v>
       </c>
       <c r="AE7" t="n">
-        <v>1551943.080098405</v>
+        <v>1680991.344450135</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.379311408049221e-06</v>
+        <v>1.995549823295613e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.21028645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1403827.810699606</v>
+        <v>1520559.889821983</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1108.494210479962</v>
+        <v>1202.810906425563</v>
       </c>
       <c r="AB8" t="n">
-        <v>1516.690682091828</v>
+        <v>1645.738946443558</v>
       </c>
       <c r="AC8" t="n">
-        <v>1371.939852081725</v>
+        <v>1488.671931204103</v>
       </c>
       <c r="AD8" t="n">
-        <v>1108494.210479962</v>
+        <v>1202810.906425563</v>
       </c>
       <c r="AE8" t="n">
-        <v>1516690.682091828</v>
+        <v>1645738.946443558</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.389004985766816e-06</v>
+        <v>2.009574225028654e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1371939.852081725</v>
+        <v>1488671.931204103</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1112.851610174002</v>
+        <v>1207.168306119602</v>
       </c>
       <c r="AB9" t="n">
-        <v>1522.65266858812</v>
+        <v>1651.70093293985</v>
       </c>
       <c r="AC9" t="n">
-        <v>1377.332834954512</v>
+        <v>1494.064914076889</v>
       </c>
       <c r="AD9" t="n">
-        <v>1112851.610174001</v>
+        <v>1207168.306119602</v>
       </c>
       <c r="AE9" t="n">
-        <v>1522652.66858812</v>
+        <v>1651700.93293985</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388910873361791e-06</v>
+        <v>2.009438065788527e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1377332.834954512</v>
+        <v>1494064.914076889</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1763.644739904456</v>
+        <v>1893.177687635639</v>
       </c>
       <c r="AB2" t="n">
-        <v>2413.096539651893</v>
+        <v>2590.329233328036</v>
       </c>
       <c r="AC2" t="n">
-        <v>2182.79399270978</v>
+        <v>2343.11184684912</v>
       </c>
       <c r="AD2" t="n">
-        <v>1763644.739904456</v>
+        <v>1893177.687635639</v>
       </c>
       <c r="AE2" t="n">
-        <v>2413096.539651893</v>
+        <v>2590329.233328036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.046864155130927e-06</v>
+        <v>1.572059794744666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.66015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2182793.99270978</v>
+        <v>2343111.84684912</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1105.110864417484</v>
+        <v>1202.175323869851</v>
       </c>
       <c r="AB3" t="n">
-        <v>1512.061438746452</v>
+        <v>1644.86931435091</v>
       </c>
       <c r="AC3" t="n">
-        <v>1367.752417224048</v>
+        <v>1487.885295577841</v>
       </c>
       <c r="AD3" t="n">
-        <v>1105110.864417484</v>
+        <v>1202175.323869851</v>
       </c>
       <c r="AE3" t="n">
-        <v>1512061.438746453</v>
+        <v>1644869.31435091</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359233268916347e-06</v>
+        <v>2.04113968681592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.38151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1367752.417224048</v>
+        <v>1487885.295577841</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>938.4299294468325</v>
+        <v>1035.494299390648</v>
       </c>
       <c r="AB4" t="n">
-        <v>1284.001230075736</v>
+        <v>1416.808983210645</v>
       </c>
       <c r="AC4" t="n">
-        <v>1161.457954784352</v>
+        <v>1281.590722356917</v>
       </c>
       <c r="AD4" t="n">
-        <v>938429.9294468325</v>
+        <v>1035494.299390648</v>
       </c>
       <c r="AE4" t="n">
-        <v>1284001.230075736</v>
+        <v>1416808.983210645</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457688592589913e-06</v>
+        <v>2.188988531546331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.73763020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1161457.954784352</v>
+        <v>1281590.722356917</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>935.5733464131395</v>
+        <v>1032.637716356955</v>
       </c>
       <c r="AB5" t="n">
-        <v>1280.092727145488</v>
+        <v>1412.900480280397</v>
       </c>
       <c r="AC5" t="n">
-        <v>1157.922473888148</v>
+        <v>1278.055241460714</v>
       </c>
       <c r="AD5" t="n">
-        <v>935573.3464131395</v>
+        <v>1032637.716356955</v>
       </c>
       <c r="AE5" t="n">
-        <v>1280092.727145488</v>
+        <v>1412900.480280397</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461659386409219e-06</v>
+        <v>2.194951411530288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.67578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1157922.473888148</v>
+        <v>1278055.241460714</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1266.85862460664</v>
+        <v>1376.788061149745</v>
       </c>
       <c r="AB2" t="n">
-        <v>1733.371860044814</v>
+        <v>1883.782164867553</v>
       </c>
       <c r="AC2" t="n">
-        <v>1567.941282524821</v>
+        <v>1703.996638957467</v>
       </c>
       <c r="AD2" t="n">
-        <v>1266858.62460664</v>
+        <v>1376788.061149745</v>
       </c>
       <c r="AE2" t="n">
-        <v>1733371.860044814</v>
+        <v>1883782.164867553</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.229102861209837e-06</v>
+        <v>1.885132517421816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.08919270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1567941.282524821</v>
+        <v>1703996.638957467</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>872.016931685005</v>
+        <v>966.144643389378</v>
       </c>
       <c r="AB3" t="n">
-        <v>1193.132036603327</v>
+        <v>1321.921724378813</v>
       </c>
       <c r="AC3" t="n">
-        <v>1079.261189601235</v>
+        <v>1195.759370332891</v>
       </c>
       <c r="AD3" t="n">
-        <v>872016.9316850051</v>
+        <v>966144.643389378</v>
       </c>
       <c r="AE3" t="n">
-        <v>1193132.036603327</v>
+        <v>1321921.724378813</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.480035415323434e-06</v>
+        <v>2.269999506482133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.32682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1079261.189601235</v>
+        <v>1195759.370332891</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>875.6693109303787</v>
+        <v>969.7970226347518</v>
       </c>
       <c r="AB4" t="n">
-        <v>1198.129383018447</v>
+        <v>1326.919070793933</v>
       </c>
       <c r="AC4" t="n">
-        <v>1083.781596288316</v>
+        <v>1200.279777019972</v>
       </c>
       <c r="AD4" t="n">
-        <v>875669.3109303787</v>
+        <v>969797.0226347517</v>
       </c>
       <c r="AE4" t="n">
-        <v>1198129.383018447</v>
+        <v>1326919.070793933</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.481732338766298e-06</v>
+        <v>2.272602157295728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.29752604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1083781.596288316</v>
+        <v>1200279.777019972</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>946.4467342553249</v>
+        <v>1046.134115426513</v>
       </c>
       <c r="AB2" t="n">
-        <v>1294.970176091182</v>
+        <v>1431.366848906471</v>
       </c>
       <c r="AC2" t="n">
-        <v>1171.380039987096</v>
+        <v>1294.759205782826</v>
       </c>
       <c r="AD2" t="n">
-        <v>946446.7342553249</v>
+        <v>1046134.115426513</v>
       </c>
       <c r="AE2" t="n">
-        <v>1294970.176091182</v>
+        <v>1431366.848906471</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.38950024280913e-06</v>
+        <v>2.171066720989044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1171380.039987096</v>
+        <v>1294759.205782827</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>833.6587955156606</v>
+        <v>925.5926652507368</v>
       </c>
       <c r="AB3" t="n">
-        <v>1140.648742454894</v>
+        <v>1266.436718862512</v>
       </c>
       <c r="AC3" t="n">
-        <v>1031.786827385563</v>
+        <v>1145.569775869371</v>
       </c>
       <c r="AD3" t="n">
-        <v>833658.7955156605</v>
+        <v>925592.6652507368</v>
       </c>
       <c r="AE3" t="n">
-        <v>1140648.742454894</v>
+        <v>1266436.718862512</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482645580838736e-06</v>
+        <v>2.316604474334461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1031786.827385563</v>
+        <v>1145569.775869371</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.39488194655</v>
+        <v>886.3088759742635</v>
       </c>
       <c r="AB2" t="n">
-        <v>1073.243682539159</v>
+        <v>1212.686905295973</v>
       </c>
       <c r="AC2" t="n">
-        <v>970.8148117845901</v>
+        <v>1096.949769071286</v>
       </c>
       <c r="AD2" t="n">
-        <v>784394.88194655</v>
+        <v>886308.8759742635</v>
       </c>
       <c r="AE2" t="n">
-        <v>1073243.682539159</v>
+        <v>1212686.905295973</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.399862574404617e-06</v>
+        <v>2.281322627121003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.3828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>970814.8117845901</v>
+        <v>1096949.769071286</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2378.203290099745</v>
+        <v>2535.679325535805</v>
       </c>
       <c r="AB2" t="n">
-        <v>3253.96266043901</v>
+        <v>3469.428319475004</v>
       </c>
       <c r="AC2" t="n">
-        <v>2943.409031091865</v>
+        <v>3138.310950037407</v>
       </c>
       <c r="AD2" t="n">
-        <v>2378203.290099745</v>
+        <v>2535679.325535805</v>
       </c>
       <c r="AE2" t="n">
-        <v>3253962.66043901</v>
+        <v>3469428.319475004</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.952510462696827e-07</v>
+        <v>1.322626711207743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.80729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2943409.031091865</v>
+        <v>3138310.950037407</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1367.609767773796</v>
+        <v>1483.599825013749</v>
       </c>
       <c r="AB3" t="n">
-        <v>1871.224018952853</v>
+        <v>2029.926732388735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1692.637024863398</v>
+        <v>1836.193374069616</v>
       </c>
       <c r="AD3" t="n">
-        <v>1367609.767773796</v>
+        <v>1483599.825013749</v>
       </c>
       <c r="AE3" t="n">
-        <v>1871224.018952853</v>
+        <v>2029926.732388735</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.237752766534335e-06</v>
+        <v>1.82863217832693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1692637.024863398</v>
+        <v>1836193.374069616</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1134.173928066417</v>
+        <v>1233.569683536479</v>
       </c>
       <c r="AB4" t="n">
-        <v>1551.826804602799</v>
+        <v>1687.824462268189</v>
       </c>
       <c r="AC4" t="n">
-        <v>1403.722632374107</v>
+        <v>1526.740864465824</v>
       </c>
       <c r="AD4" t="n">
-        <v>1134173.928066417</v>
+        <v>1233569.683536479</v>
       </c>
       <c r="AE4" t="n">
-        <v>1551826.804602799</v>
+        <v>1687824.462268189</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.364393713130179e-06</v>
+        <v>2.015729081925341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.49609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1403722.632374106</v>
+        <v>1526740.864465823</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1011.021665161819</v>
+        <v>1110.33207977731</v>
       </c>
       <c r="AB5" t="n">
-        <v>1383.324445402338</v>
+        <v>1519.205335945531</v>
       </c>
       <c r="AC5" t="n">
-        <v>1251.301901841191</v>
+        <v>1374.214510900969</v>
       </c>
       <c r="AD5" t="n">
-        <v>1011021.665161819</v>
+        <v>1110332.07977731</v>
       </c>
       <c r="AE5" t="n">
-        <v>1383324.445402338</v>
+        <v>1519205.335945531</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.428206569579717e-06</v>
+        <v>2.110004971141337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.44466145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1251301.901841191</v>
+        <v>1374214.510900969</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>999.4171946402178</v>
+        <v>1090.601095325631</v>
       </c>
       <c r="AB6" t="n">
-        <v>1367.446696881575</v>
+        <v>1492.208532549143</v>
       </c>
       <c r="AC6" t="n">
-        <v>1236.93950335469</v>
+        <v>1349.794244530482</v>
       </c>
       <c r="AD6" t="n">
-        <v>999417.1946402178</v>
+        <v>1090601.095325631</v>
       </c>
       <c r="AE6" t="n">
-        <v>1367446.696881575</v>
+        <v>1492208.532549143</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.435789270114616e-06</v>
+        <v>2.121207507359904e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.32747395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1236939.50335469</v>
+        <v>1349794.244530482</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3448.300906097676</v>
+        <v>3635.682595538059</v>
       </c>
       <c r="AB2" t="n">
-        <v>4718.11742802241</v>
+        <v>4974.50132221146</v>
       </c>
       <c r="AC2" t="n">
-        <v>4267.826922611173</v>
+        <v>4499.741897775867</v>
       </c>
       <c r="AD2" t="n">
-        <v>3448300.906097676</v>
+        <v>3635682.595538059</v>
       </c>
       <c r="AE2" t="n">
-        <v>4718117.42802241</v>
+        <v>4974501.32221146</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.301237816822869e-07</v>
+        <v>1.060263133332754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.30794270833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4267826.922611173</v>
+        <v>4499741.897775867</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1748.326390577736</v>
+        <v>1867.646899001608</v>
       </c>
       <c r="AB3" t="n">
-        <v>2392.137298305197</v>
+        <v>2555.396881980053</v>
       </c>
       <c r="AC3" t="n">
-        <v>2163.835071940733</v>
+        <v>2311.513390085926</v>
       </c>
       <c r="AD3" t="n">
-        <v>1748326.390577736</v>
+        <v>1867646.899001608</v>
       </c>
       <c r="AE3" t="n">
-        <v>2392137.298305197</v>
+        <v>2555396.881980053</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.102682394482476e-06</v>
+        <v>1.601281207346842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.01432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2163835.071940733</v>
+        <v>2311513.390085926</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1413.231838435928</v>
+        <v>1524.023274510543</v>
       </c>
       <c r="AB4" t="n">
-        <v>1933.646148736491</v>
+        <v>2085.235879346977</v>
       </c>
       <c r="AC4" t="n">
-        <v>1749.101674190494</v>
+        <v>1886.223893669038</v>
       </c>
       <c r="AD4" t="n">
-        <v>1413231.838435928</v>
+        <v>1524023.274510543</v>
       </c>
       <c r="AE4" t="n">
-        <v>1933646.148736491</v>
+        <v>2085235.879346977</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244171159557638e-06</v>
+        <v>1.806746808048575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.82747395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1749101.674190494</v>
+        <v>1886223.893669038</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1259.341575111041</v>
+        <v>1361.51877699893</v>
       </c>
       <c r="AB5" t="n">
-        <v>1723.086701296118</v>
+        <v>1862.890056659133</v>
       </c>
       <c r="AC5" t="n">
-        <v>1558.63772489179</v>
+        <v>1685.098444234201</v>
       </c>
       <c r="AD5" t="n">
-        <v>1259341.575111042</v>
+        <v>1361518.776998929</v>
       </c>
       <c r="AE5" t="n">
-        <v>1723086.701296118</v>
+        <v>1862890.056659133</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320656702582842e-06</v>
+        <v>1.917816743773322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.39192708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1558637.72489179</v>
+        <v>1685098.444234201</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1152.235793031143</v>
+        <v>1254.498246265051</v>
       </c>
       <c r="AB6" t="n">
-        <v>1576.539845080782</v>
+        <v>1716.459845096447</v>
       </c>
       <c r="AC6" t="n">
-        <v>1426.077094953841</v>
+        <v>1552.643326546964</v>
       </c>
       <c r="AD6" t="n">
-        <v>1152235.793031143</v>
+        <v>1254498.246265051</v>
       </c>
       <c r="AE6" t="n">
-        <v>1576539.845080782</v>
+        <v>1716459.845096447</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369717528567992e-06</v>
+        <v>1.989061355150114e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1426077.094953841</v>
+        <v>1552643.326546964</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1090.075274374895</v>
+        <v>1183.808834276648</v>
       </c>
       <c r="AB7" t="n">
-        <v>1491.489081126764</v>
+        <v>1619.739473017155</v>
       </c>
       <c r="AC7" t="n">
-        <v>1349.143456542098</v>
+        <v>1465.153811031025</v>
       </c>
       <c r="AD7" t="n">
-        <v>1090075.274374895</v>
+        <v>1183808.834276648</v>
       </c>
       <c r="AE7" t="n">
-        <v>1491489.081126764</v>
+        <v>1619739.473017154</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.396477979105346e-06</v>
+        <v>2.027922052264727e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.119140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1349143.456542098</v>
+        <v>1465153.811031025</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1090.529006640301</v>
+        <v>1184.262566542053</v>
       </c>
       <c r="AB8" t="n">
-        <v>1492.109897629547</v>
+        <v>1620.360289519937</v>
       </c>
       <c r="AC8" t="n">
-        <v>1349.705023189176</v>
+        <v>1465.715377678103</v>
       </c>
       <c r="AD8" t="n">
-        <v>1090529.006640301</v>
+        <v>1184262.566542053</v>
       </c>
       <c r="AE8" t="n">
-        <v>1492109.897629547</v>
+        <v>1620360.289519937</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397711616896075e-06</v>
+        <v>2.029713502840933e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.099609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1349705.023189176</v>
+        <v>1465715.377678103</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>798.7392656755916</v>
+        <v>912.4192969991769</v>
       </c>
       <c r="AB2" t="n">
-        <v>1092.870301186781</v>
+        <v>1248.412335252737</v>
       </c>
       <c r="AC2" t="n">
-        <v>988.5682934946152</v>
+        <v>1129.265614133932</v>
       </c>
       <c r="AD2" t="n">
-        <v>798739.2656755915</v>
+        <v>912419.296999177</v>
       </c>
       <c r="AE2" t="n">
-        <v>1092870.301186781</v>
+        <v>1248412.335252737</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.27933983481902e-06</v>
+        <v>2.132583282801813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.025390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>988568.2934946152</v>
+        <v>1129265.614133932</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1425.182262803387</v>
+        <v>1544.149785240033</v>
       </c>
       <c r="AB2" t="n">
-        <v>1949.997246571563</v>
+        <v>2112.773859246052</v>
       </c>
       <c r="AC2" t="n">
-        <v>1763.892246197096</v>
+        <v>1911.133687416344</v>
       </c>
       <c r="AD2" t="n">
-        <v>1425182.262803387</v>
+        <v>1544149.785240033</v>
       </c>
       <c r="AE2" t="n">
-        <v>1949997.246571562</v>
+        <v>2112773.859246052</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163425764840645e-06</v>
+        <v>1.770625375392777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.24153645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1763892.246197097</v>
+        <v>1911133.687416344</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>928.8758404293231</v>
+        <v>1024.015739938522</v>
       </c>
       <c r="AB3" t="n">
-        <v>1270.92890398532</v>
+        <v>1401.103511769942</v>
       </c>
       <c r="AC3" t="n">
-        <v>1149.63323314888</v>
+        <v>1267.384159067748</v>
       </c>
       <c r="AD3" t="n">
-        <v>928875.8404293231</v>
+        <v>1024015.739938522</v>
       </c>
       <c r="AE3" t="n">
-        <v>1270928.90398532</v>
+        <v>1401103.511769942</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.450833315443572e-06</v>
+        <v>2.208032829788227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.447265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1149633.23314888</v>
+        <v>1267384.159067748</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>896.5318379631594</v>
+        <v>983.899878205685</v>
       </c>
       <c r="AB4" t="n">
-        <v>1226.674412894432</v>
+        <v>1346.215219960161</v>
       </c>
       <c r="AC4" t="n">
-        <v>1109.602328576139</v>
+        <v>1217.734328792091</v>
       </c>
       <c r="AD4" t="n">
-        <v>896531.8379631594</v>
+        <v>983899.8782056851</v>
       </c>
       <c r="AE4" t="n">
-        <v>1226674.412894432</v>
+        <v>1346215.219960161</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.476438715406378e-06</v>
+        <v>2.247001857543457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.04361979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1109602.328576139</v>
+        <v>1217734.328792091</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1952.476263866569</v>
+        <v>2091.216682613528</v>
       </c>
       <c r="AB2" t="n">
-        <v>2671.464161395746</v>
+        <v>2861.294923120624</v>
       </c>
       <c r="AC2" t="n">
-        <v>2416.503371255634</v>
+        <v>2588.216951510639</v>
       </c>
       <c r="AD2" t="n">
-        <v>1952476.263866569</v>
+        <v>2091216.682613528</v>
       </c>
       <c r="AE2" t="n">
-        <v>2671464.161395745</v>
+        <v>2861294.923120624</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.930434239310477e-07</v>
+        <v>1.482525147214241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.98502604166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2416503.371255634</v>
+        <v>2588216.951510639</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1191.496239437666</v>
+        <v>1297.5717735725</v>
       </c>
       <c r="AB3" t="n">
-        <v>1630.25771990284</v>
+        <v>1775.394945428408</v>
       </c>
       <c r="AC3" t="n">
-        <v>1474.668211196393</v>
+        <v>1605.953743619176</v>
       </c>
       <c r="AD3" t="n">
-        <v>1191496.239437666</v>
+        <v>1297571.7735725</v>
       </c>
       <c r="AE3" t="n">
-        <v>1630257.71990284</v>
+        <v>1775394.945428408</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.315236659661843e-06</v>
+        <v>1.963530874378087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.90559895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1474668.211196393</v>
+        <v>1605953.743619176</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>984.5261309921924</v>
+        <v>1082.435443973995</v>
       </c>
       <c r="AB4" t="n">
-        <v>1347.072086650984</v>
+        <v>1481.035928126723</v>
       </c>
       <c r="AC4" t="n">
-        <v>1218.509417328561</v>
+        <v>1339.687937793288</v>
       </c>
       <c r="AD4" t="n">
-        <v>984526.1309921924</v>
+        <v>1082435.443973995</v>
       </c>
       <c r="AE4" t="n">
-        <v>1347072.086650984</v>
+        <v>1481035.928126723</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.434675563725694e-06</v>
+        <v>2.141842491537201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.82877604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1218509.417328561</v>
+        <v>1339687.937793288</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>957.6463206582899</v>
+        <v>1055.555633640093</v>
       </c>
       <c r="AB5" t="n">
-        <v>1310.2939442986</v>
+        <v>1444.257785774339</v>
       </c>
       <c r="AC5" t="n">
-        <v>1185.241329263841</v>
+        <v>1306.419849728569</v>
       </c>
       <c r="AD5" t="n">
-        <v>957646.3206582899</v>
+        <v>1055555.633640093</v>
       </c>
       <c r="AE5" t="n">
-        <v>1310293.9442986</v>
+        <v>1444257.785774339</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.451982633227786e-06</v>
+        <v>2.167680400679044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.55859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1185241.329263842</v>
+        <v>1306419.849728569</v>
       </c>
     </row>
   </sheetData>
